--- a/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17314CC7-9703-4FE1-A30C-8B3B06DB5FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F582CC8-16E2-4870-8FF8-EE5E6E67432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C100716-E36F-4A88-96D0-0CBD5DFA10E9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47C1A1EA-C95B-4BB0-B0DA-99AB7E24EBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -77,58 +77,58 @@
     <t>21,32%</t>
   </si>
   <si>
-    <t>18,26%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>79,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>37,65%</t>
   </si>
   <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>38,74%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>38,21%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>61,26%</t>
   </si>
   <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>61,79%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,103 +197,109 @@
     <t>31,77%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>27,17%</t>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>72,83%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
   </si>
   <si>
     <t>32,06%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>67,94%</t>
   </si>
   <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,169 +311,163 @@
     <t>19,4%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>80,6%</t>
   </si>
   <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>78,06%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>33,48%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>66,52%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>68,89%</t>
   </si>
   <si>
     <t>66,01%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>32,22%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>67,78%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>73,68%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>28,38%</t>
+    <t>28,31%</t>
   </si>
   <si>
     <t>31,9%</t>
@@ -476,241 +476,259 @@
     <t>29,0%</t>
   </si>
   <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>72,39%</t>
   </si>
   <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>73,12%</t>
   </si>
   <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
@@ -719,211 +737,199 @@
     <t>14,43%</t>
   </si>
   <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>14,23%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>85,77%</t>
   </si>
   <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>79,46%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>84,34%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620B0657-7E61-43B1-B83A-87D91378B4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62612940-D260-4B6A-95FA-CAF3FB68AB0F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1790,7 +1796,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>262</v>
@@ -1799,13 +1805,13 @@
         <v>271797</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,16 +1823,16 @@
         <v>290</v>
       </c>
       <c r="D11" s="7">
-        <v>307662</v>
+        <v>307661</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -1835,13 +1841,13 @@
         <v>280253</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>556</v>
@@ -1850,13 +1856,13 @@
         <v>587915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1874,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450929</v>
+        <v>450928</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1924,13 +1930,13 @@
         <v>784940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>856</v>
@@ -1939,13 +1945,13 @@
         <v>878804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1624</v>
@@ -1954,13 +1960,13 @@
         <v>1663744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1981,13 @@
         <v>1668761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1823</v>
@@ -1990,13 +1996,13 @@
         <v>1862133</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>3461</v>
@@ -2005,13 +2011,13 @@
         <v>3530894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2073,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A9BD4E-5C18-45FE-B478-DD809851BF8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247C2425-1258-4B06-AF1C-742C4730E32D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2109,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,13 +2216,13 @@
         <v>150967</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>252</v>
@@ -2225,13 +2231,13 @@
         <v>267249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>399</v>
@@ -2240,13 +2246,13 @@
         <v>418215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2267,13 @@
         <v>627254</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>800</v>
@@ -2276,13 +2282,13 @@
         <v>861078</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1385</v>
@@ -2291,13 +2297,13 @@
         <v>1488332</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2371,13 @@
         <v>581158</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>501</v>
@@ -2380,13 +2386,13 @@
         <v>532442</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>1051</v>
@@ -2395,13 +2401,13 @@
         <v>1113599</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2422,13 @@
         <v>1105286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>976</v>
@@ -2431,10 +2437,10 @@
         <v>1057836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>119</v>
@@ -2708,10 +2714,10 @@
         <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2732,13 @@
         <v>2032231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2055</v>
@@ -2741,13 +2747,13 @@
         <v>2229687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>3955</v>
@@ -2756,13 +2762,13 @@
         <v>4261919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,7 +2824,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279FB4D6-D48D-41FA-A590-6096529A6F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1132EA39-F880-430E-B975-3217BDD6EB59}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2961,13 +2967,13 @@
         <v>91513</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>133</v>
@@ -2976,13 +2982,13 @@
         <v>142605</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>225</v>
@@ -2991,13 +2997,13 @@
         <v>234118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3018,13 @@
         <v>365906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>449</v>
@@ -3027,13 +3033,13 @@
         <v>496269</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>818</v>
@@ -3042,13 +3048,13 @@
         <v>862176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3122,13 @@
         <v>514516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>481</v>
@@ -3131,13 +3137,13 @@
         <v>494867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>964</v>
@@ -3146,13 +3152,13 @@
         <v>1009383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3173,13 @@
         <v>1182089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>1165</v>
@@ -3182,13 +3188,13 @@
         <v>1213852</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>2281</v>
@@ -3197,13 +3203,13 @@
         <v>2395941</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3277,13 @@
         <v>126599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -3286,13 +3292,13 @@
         <v>111036</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>225</v>
@@ -3301,13 +3307,13 @@
         <v>237635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3328,13 @@
         <v>372645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>377</v>
@@ -3337,13 +3343,13 @@
         <v>397284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>722</v>
@@ -3352,13 +3358,13 @@
         <v>769929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3432,13 @@
         <v>732628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>725</v>
@@ -3441,13 +3447,13 @@
         <v>748508</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>1414</v>
@@ -3456,13 +3462,13 @@
         <v>1481136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3483,13 @@
         <v>1920641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>1991</v>
@@ -3492,13 +3498,13 @@
         <v>2107405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>3821</v>
@@ -3507,13 +3513,13 @@
         <v>4028046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD53425-0BD3-40BA-866E-B4FB72E06C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6EF7E7-B27E-4971-9994-D0D432E06FE3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3718,13 @@
         <v>73490</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>182</v>
@@ -3727,13 +3733,13 @@
         <v>112673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -3742,13 +3748,13 @@
         <v>186164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3769,13 @@
         <v>435921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>1188</v>
@@ -3778,13 +3784,13 @@
         <v>686051</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1750</v>
@@ -3793,13 +3799,13 @@
         <v>1121971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,13 +3873,13 @@
         <v>430649</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>556</v>
@@ -3882,13 +3888,13 @@
         <v>404058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>934</v>
@@ -3897,13 +3903,13 @@
         <v>834707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3924,13 @@
         <v>1665971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>2292</v>
@@ -3933,13 +3939,13 @@
         <v>1801426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>3837</v>
@@ -3948,13 +3954,13 @@
         <v>3467398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4028,13 @@
         <v>109389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -4037,13 +4043,13 @@
         <v>128385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -4052,13 +4058,13 @@
         <v>237774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4079,13 @@
         <v>551912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -4088,13 +4094,13 @@
         <v>575676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1351</v>
@@ -4103,13 +4109,13 @@
         <v>1127588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4183,13 @@
         <v>613528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>940</v>
@@ -4192,13 +4198,13 @@
         <v>645116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1508</v>
@@ -4207,13 +4213,13 @@
         <v>1258644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,28 +4234,28 @@
         <v>2653804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>4266</v>
       </c>
       <c r="I14" s="7">
-        <v>3063154</v>
+        <v>3063153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>6938</v>
@@ -4258,13 +4264,13 @@
         <v>5716958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4297,7 @@
         <v>5206</v>
       </c>
       <c r="I15" s="7">
-        <v>3708270</v>
+        <v>3708269</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4320,7 +4326,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F582CC8-16E2-4870-8FF8-EE5E6E67432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B061DF4-9702-4C01-9074-A207838FD093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47C1A1EA-C95B-4BB0-B0DA-99AB7E24EBAE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF34F1EB-CF95-42FF-B92A-8B7C25C83222}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -77,790 +77,796 @@
     <t>21,32%</t>
   </si>
   <si>
-    <t>18,27%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>22,76%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
     <t>86,37%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
   </si>
   <si>
     <t>78,96%</t>
@@ -1341,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62612940-D260-4B6A-95FA-CAF3FB68AB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB2FC7-2FE2-45BA-807B-74238B5574F3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,7 +1829,7 @@
         <v>290</v>
       </c>
       <c r="D11" s="7">
-        <v>307661</v>
+        <v>307662</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1874,7 +1880,7 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>450928</v>
+        <v>450929</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247C2425-1258-4B06-AF1C-742C4730E32D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E7BE20-B5F6-40A9-8B6D-0E7E186D494B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2392,22 +2398,22 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1051</v>
       </c>
       <c r="N7" s="7">
-        <v>1113599</v>
+        <v>1113600</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,13 +2428,13 @@
         <v>1105286</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>976</v>
@@ -2437,13 +2443,13 @@
         <v>1057836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2021</v>
@@ -2452,13 +2458,13 @@
         <v>2163122</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2506,7 @@
         <v>3072</v>
       </c>
       <c r="N9" s="7">
-        <v>3276721</v>
+        <v>3276722</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2526,13 +2532,13 @@
         <v>142443</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -2541,13 +2547,13 @@
         <v>111027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -2556,13 +2562,13 @@
         <v>253469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2583,13 @@
         <v>299691</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -2592,13 +2598,13 @@
         <v>310773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>549</v>
@@ -2607,13 +2613,13 @@
         <v>610465</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2687,13 @@
         <v>874567</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>855</v>
@@ -2696,13 +2702,13 @@
         <v>910717</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1683</v>
@@ -2711,13 +2717,13 @@
         <v>1785284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2738,13 @@
         <v>2032231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2055</v>
@@ -2747,13 +2753,13 @@
         <v>2229687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>3955</v>
@@ -2762,13 +2768,13 @@
         <v>4261919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1132EA39-F880-430E-B975-3217BDD6EB59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AF1096-677B-439F-837C-344DBF087313}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2973,13 @@
         <v>91513</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>133</v>
@@ -2982,13 +2988,13 @@
         <v>142605</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>225</v>
@@ -2997,13 +3003,13 @@
         <v>234118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3024,13 @@
         <v>365906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>449</v>
@@ -3033,13 +3039,13 @@
         <v>496269</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>818</v>
@@ -3048,13 +3054,13 @@
         <v>862176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3128,13 @@
         <v>514516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>481</v>
@@ -3137,13 +3143,13 @@
         <v>494867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>964</v>
@@ -3152,13 +3158,13 @@
         <v>1009383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3179,7 @@
         <v>1182089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>187</v>
@@ -3206,10 +3212,10 @@
         <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6EF7E7-B27E-4971-9994-D0D432E06FE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C033B1-71E0-4E0A-9A5A-999360DAB85B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4028,13 +4034,13 @@
         <v>109389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -4043,13 +4049,13 @@
         <v>128385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -4058,13 +4064,13 @@
         <v>237774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4085,13 @@
         <v>551912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -4094,13 +4100,13 @@
         <v>575676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1351</v>
@@ -4109,13 +4115,13 @@
         <v>1127588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4189,13 @@
         <v>613528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>940</v>
@@ -4198,13 +4204,13 @@
         <v>645116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>1508</v>
@@ -4213,13 +4219,13 @@
         <v>1258644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4240,13 @@
         <v>2653804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>4266</v>
@@ -4249,13 +4255,13 @@
         <v>3063153</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>6938</v>
@@ -4264,13 +4270,13 @@
         <v>5716958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B061DF4-9702-4C01-9074-A207838FD093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A2B6D9-9322-422B-9A80-3776298F07E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF34F1EB-CF95-42FF-B92A-8B7C25C83222}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E5F6125-A249-492D-8DF2-E8698FDC7A64}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -71,871 +71,859 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2012 (Tasa respuesta: 86,78%)</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
   </si>
   <si>
     <t>82,59%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>81,96%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EB2FC7-2FE2-45BA-807B-74238B5574F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15817A43-4A59-4625-AC3D-25B757BEE195}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1802,7 +1790,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>262</v>
@@ -1811,13 +1799,13 @@
         <v>271797</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1820,13 @@
         <v>307662</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>266</v>
@@ -1847,13 +1835,13 @@
         <v>280253</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>556</v>
@@ -1862,13 +1850,13 @@
         <v>587915</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1924,13 @@
         <v>784940</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>856</v>
@@ -1951,13 +1939,13 @@
         <v>878804</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1624</v>
@@ -1966,13 +1954,13 @@
         <v>1663744</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1975,13 @@
         <v>1668761</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1823</v>
@@ -2002,13 +1990,13 @@
         <v>1862133</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>3461</v>
@@ -2017,13 +2005,13 @@
         <v>3530894</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E7BE20-B5F6-40A9-8B6D-0E7E186D494B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F852A2-8349-48D4-AA22-B3001C84E733}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2210,13 @@
         <v>150967</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>252</v>
@@ -2237,13 +2225,13 @@
         <v>267249</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>399</v>
@@ -2252,13 +2240,13 @@
         <v>418215</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2261,13 @@
         <v>627254</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>800</v>
@@ -2288,13 +2276,13 @@
         <v>861078</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1385</v>
@@ -2303,13 +2291,13 @@
         <v>1488332</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2365,13 @@
         <v>581158</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>501</v>
@@ -2392,28 +2380,28 @@
         <v>532442</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1051</v>
       </c>
       <c r="N7" s="7">
-        <v>1113600</v>
+        <v>1113599</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2416,13 @@
         <v>1105286</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>976</v>
@@ -2443,13 +2431,13 @@
         <v>1057836</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2021</v>
@@ -2458,13 +2446,13 @@
         <v>2163122</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,7 +2494,7 @@
         <v>3072</v>
       </c>
       <c r="N9" s="7">
-        <v>3276722</v>
+        <v>3276721</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2532,13 +2520,13 @@
         <v>142443</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>102</v>
@@ -2547,13 +2535,13 @@
         <v>111027</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>233</v>
@@ -2562,13 +2550,13 @@
         <v>253469</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2571,13 @@
         <v>299691</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>279</v>
@@ -2598,13 +2586,13 @@
         <v>310773</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>549</v>
@@ -2613,13 +2601,13 @@
         <v>610465</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2675,13 @@
         <v>874567</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>855</v>
@@ -2702,13 +2690,13 @@
         <v>910717</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1683</v>
@@ -2717,13 +2705,13 @@
         <v>1785284</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2726,13 @@
         <v>2032231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>2055</v>
@@ -2753,13 +2741,13 @@
         <v>2229687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>3955</v>
@@ -2768,13 +2756,13 @@
         <v>4261919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AF1096-677B-439F-837C-344DBF087313}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792A4480-49E9-4D47-89C0-C1BCF3589755}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2961,13 @@
         <v>91513</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>133</v>
@@ -2988,13 +2976,13 @@
         <v>142605</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>225</v>
@@ -3003,13 +2991,13 @@
         <v>234118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3012,13 @@
         <v>365906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>449</v>
@@ -3039,13 +3027,13 @@
         <v>496269</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>818</v>
@@ -3054,13 +3042,13 @@
         <v>862176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3116,13 @@
         <v>514516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>481</v>
@@ -3143,13 +3131,13 @@
         <v>494867</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>964</v>
@@ -3158,13 +3146,13 @@
         <v>1009383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3167,13 @@
         <v>1182089</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1165</v>
@@ -3194,13 +3182,13 @@
         <v>1213852</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>2281</v>
@@ -3209,13 +3197,13 @@
         <v>2395941</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3271,13 @@
         <v>126599</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -3298,13 +3286,13 @@
         <v>111036</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>225</v>
@@ -3313,13 +3301,13 @@
         <v>237635</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3322,13 @@
         <v>372645</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>377</v>
@@ -3349,13 +3337,13 @@
         <v>397284</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>722</v>
@@ -3364,13 +3352,13 @@
         <v>769929</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3426,13 @@
         <v>732628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>725</v>
@@ -3453,13 +3441,13 @@
         <v>748508</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>1414</v>
@@ -3468,13 +3456,13 @@
         <v>1481136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3477,13 @@
         <v>1920641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>1991</v>
@@ -3504,13 +3492,13 @@
         <v>2107405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>3821</v>
@@ -3519,13 +3507,13 @@
         <v>4028046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C033B1-71E0-4E0A-9A5A-999360DAB85B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB4D0B3-B92A-4744-988F-D8682B4BBEED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3712,13 @@
         <v>73490</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>182</v>
@@ -3739,13 +3727,13 @@
         <v>112673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>267</v>
@@ -3754,13 +3742,13 @@
         <v>186164</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3763,13 @@
         <v>435921</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>1188</v>
@@ -3790,13 +3778,13 @@
         <v>686051</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>1750</v>
@@ -3805,13 +3793,13 @@
         <v>1121971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>430649</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>556</v>
@@ -3894,13 +3882,13 @@
         <v>404058</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>934</v>
@@ -3909,13 +3897,13 @@
         <v>834707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3918,13 @@
         <v>1665971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>2292</v>
@@ -3945,13 +3933,13 @@
         <v>1801426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>3837</v>
@@ -3960,13 +3948,13 @@
         <v>3467398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4022,13 @@
         <v>109389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
@@ -4049,13 +4037,13 @@
         <v>128385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
@@ -4064,13 +4052,13 @@
         <v>237774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4073,13 @@
         <v>551912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -4100,13 +4088,13 @@
         <v>575676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1351</v>
@@ -4115,13 +4103,13 @@
         <v>1127588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4177,13 @@
         <v>613528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>940</v>
@@ -4204,13 +4192,13 @@
         <v>645116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>1508</v>
@@ -4219,13 +4207,13 @@
         <v>1258644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,28 +4228,28 @@
         <v>2653804</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>4266</v>
       </c>
       <c r="I14" s="7">
-        <v>3063153</v>
+        <v>3063154</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>6938</v>
@@ -4270,13 +4258,13 @@
         <v>5716958</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4291,7 @@
         <v>5206</v>
       </c>
       <c r="I15" s="7">
-        <v>3708269</v>
+        <v>3708270</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4332,7 +4320,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25A2B6D9-9322-422B-9A80-3776298F07E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A202B0F-C43D-48B7-B30D-2AE97840AD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E5F6125-A249-492D-8DF2-E8698FDC7A64}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3D2ED759-96E6-4F12-8B84-47E2F016A022}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2007 (Tasa respuesta: 78,1%)</t>
   </si>
@@ -716,214 +716,208 @@
     <t>Población según si el motivo por su última visita al dentista fue por un empaste en 2023 (Tasa respuesta: 96,85%)</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15817A43-4A59-4625-AC3D-25B757BEE195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777D754F-D2D4-4860-A77D-60C7493EAD57}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2086,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F852A2-8349-48D4-AA22-B3001C84E733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C3B285-64B8-4839-8B6C-261F295DF9B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,7 +2732,7 @@
         <v>2055</v>
       </c>
       <c r="I14" s="7">
-        <v>2229687</v>
+        <v>2229688</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>152</v>
@@ -2789,7 +2783,7 @@
         <v>2910</v>
       </c>
       <c r="I15" s="7">
-        <v>3140404</v>
+        <v>3140405</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792A4480-49E9-4D47-89C0-C1BCF3589755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57BF86E-12C4-49E4-AB07-5E21EC820E41}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3039,7 +3033,7 @@
         <v>818</v>
       </c>
       <c r="N5" s="7">
-        <v>862176</v>
+        <v>862175</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>172</v>
@@ -3090,7 +3084,7 @@
         <v>1043</v>
       </c>
       <c r="N6" s="7">
-        <v>1096294</v>
+        <v>1096293</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3588,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB4D0B3-B92A-4744-988F-D8682B4BBEED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E78DC0-AD2C-4DFA-BE80-221AF61B1CD0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,7 +3703,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="7">
-        <v>73490</v>
+        <v>71855</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -3724,7 +3718,7 @@
         <v>182</v>
       </c>
       <c r="I4" s="7">
-        <v>112673</v>
+        <v>104901</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>228</v>
@@ -3739,7 +3733,7 @@
         <v>267</v>
       </c>
       <c r="N4" s="7">
-        <v>186164</v>
+        <v>176756</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>231</v>
@@ -3760,7 +3754,7 @@
         <v>562</v>
       </c>
       <c r="D5" s="7">
-        <v>435921</v>
+        <v>411490</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>234</v>
@@ -3775,7 +3769,7 @@
         <v>1188</v>
       </c>
       <c r="I5" s="7">
-        <v>686051</v>
+        <v>616715</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>237</v>
@@ -3790,7 +3784,7 @@
         <v>1750</v>
       </c>
       <c r="N5" s="7">
-        <v>1121971</v>
+        <v>1028205</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>240</v>
@@ -3811,7 +3805,7 @@
         <v>647</v>
       </c>
       <c r="D6" s="7">
-        <v>509411</v>
+        <v>483345</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3820,7 @@
         <v>1370</v>
       </c>
       <c r="I6" s="7">
-        <v>798724</v>
+        <v>721616</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3835,7 @@
         <v>2017</v>
       </c>
       <c r="N6" s="7">
-        <v>1308135</v>
+        <v>1204961</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3864,46 +3858,46 @@
         <v>378</v>
       </c>
       <c r="D7" s="7">
-        <v>430649</v>
+        <v>423516</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>556</v>
       </c>
       <c r="I7" s="7">
-        <v>404058</v>
+        <v>399063</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>934</v>
       </c>
       <c r="N7" s="7">
-        <v>834707</v>
+        <v>822579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3909,46 @@
         <v>1545</v>
       </c>
       <c r="D8" s="7">
-        <v>1665971</v>
+        <v>1807021</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>2292</v>
       </c>
       <c r="I8" s="7">
-        <v>1801426</v>
+        <v>1798200</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>3837</v>
       </c>
       <c r="N8" s="7">
-        <v>3467398</v>
+        <v>3605220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3960,7 @@
         <v>1923</v>
       </c>
       <c r="D9" s="7">
-        <v>2096620</v>
+        <v>2230537</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3981,7 +3975,7 @@
         <v>2848</v>
       </c>
       <c r="I9" s="7">
-        <v>2205484</v>
+        <v>2197263</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +3990,7 @@
         <v>4771</v>
       </c>
       <c r="N9" s="7">
-        <v>4302105</v>
+        <v>4427799</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4019,46 +4013,46 @@
         <v>105</v>
       </c>
       <c r="D10" s="7">
-        <v>109389</v>
+        <v>106157</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>128385</v>
+        <v>119566</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>307</v>
       </c>
       <c r="N10" s="7">
-        <v>237774</v>
+        <v>225723</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,46 +4064,46 @@
         <v>565</v>
       </c>
       <c r="D11" s="7">
-        <v>551912</v>
+        <v>525159</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
       </c>
       <c r="I11" s="7">
-        <v>575676</v>
+        <v>532045</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1351</v>
       </c>
       <c r="N11" s="7">
-        <v>1127588</v>
+        <v>1057204</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4115,7 @@
         <v>670</v>
       </c>
       <c r="D12" s="7">
-        <v>661301</v>
+        <v>631316</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4130,7 @@
         <v>988</v>
       </c>
       <c r="I12" s="7">
-        <v>704061</v>
+        <v>651611</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4145,7 @@
         <v>1658</v>
       </c>
       <c r="N12" s="7">
-        <v>1365362</v>
+        <v>1282927</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4174,46 +4168,46 @@
         <v>568</v>
       </c>
       <c r="D13" s="7">
-        <v>613528</v>
+        <v>601529</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>940</v>
       </c>
       <c r="I13" s="7">
-        <v>645116</v>
+        <v>623530</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>1508</v>
       </c>
       <c r="N13" s="7">
-        <v>1258644</v>
+        <v>1225059</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,46 +4219,46 @@
         <v>2672</v>
       </c>
       <c r="D14" s="7">
-        <v>2653804</v>
+        <v>2743668</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>4266</v>
       </c>
       <c r="I14" s="7">
-        <v>3063154</v>
+        <v>2946960</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>6938</v>
       </c>
       <c r="N14" s="7">
-        <v>5716958</v>
+        <v>5690628</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4270,7 @@
         <v>3240</v>
       </c>
       <c r="D15" s="7">
-        <v>3267332</v>
+        <v>3345197</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4291,7 +4285,7 @@
         <v>5206</v>
       </c>
       <c r="I15" s="7">
-        <v>3708270</v>
+        <v>3570490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4300,7 @@
         <v>8446</v>
       </c>
       <c r="N15" s="7">
-        <v>6975602</v>
+        <v>6915687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
